--- a/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons-3rd/lesson-20.xlsx
+++ b/linguistics/genki-study-resources/resources/tools/wordlist_E-J/lessons-3rd/lesson-20.xlsx
@@ -700,7 +700,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>mysterious</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
